--- a/biology/Médecine/Fernand_Linarès/Fernand_Linarès.xlsx
+++ b/biology/Médecine/Fernand_Linarès/Fernand_Linarès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernand_Linar%C3%A8s</t>
+          <t>Fernand_Linarès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Fernand Jean Léon Linarès (Limeuil, 3 juillet 1850-Limeuil, 13 mars 1938) est un médecin et explorateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernand_Linar%C3%A8s</t>
+          <t>Fernand_Linarès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin-militaire, il est nommé à Géryville dans le sud de l'Algérie en 1875. Membre de la mission militaire française au Maroc (1877), il se distingue lors de la lutte contre l'épidémie de choléra d'Oudjda (1878). Moulay-Hassan l'engage alors à son service comme médecin et conseiller.
 Il accompagne alors le sultan dans tous ses déplacements et notamment en 1893 dans l'expédition punitive du Tafilelt qui passe par Sefrou, la haute Moulouya, l'Atlas et Ksar Es-Souk et qui dure plus de cinq mois. Après trois semaines dans le Tafilelt, le retour se fait par le Todrha, le Dadès, le col de Glaoui et atteint Marrakech le 20 décembre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fernand_Linar%C3%A8s</t>
+          <t>Fernand_Linarès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une rue de Marrakech porte son nom.
 Commandeur de l'Ordre du Médjidié
-Officier de la Légion d'honneur[1].
+Officier de la Légion d'honneur.
 Officier des Palmes Académiques
 Officier du Nichan Iftikhar
 Chevalier de l'Ordre des Saints Maurice-et-Lazare</t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernand_Linar%C3%A8s</t>
+          <t>Fernand_Linarès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étude sur le mécanisme de la mort par le froid extérieur, 1875
 Une épidémie de choléra au Maroc en 1878, 1879
